--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
+    <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -76,9 +70,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,169 +79,148 @@
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -608,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -727,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -777,37 +747,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8181818181818182</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -927,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,31 +965,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L9">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
-      <c r="L9">
-        <v>36</v>
-      </c>
-      <c r="M9">
-        <v>36</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.375</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>428</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3703703703703703</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3047210300429185</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2906976744186047</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,559 +1215,487 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>21</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7734375</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K14">
-        <v>0.875</v>
-      </c>
-      <c r="L14">
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="L18">
+        <v>89</v>
+      </c>
+      <c r="M18">
+        <v>89</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L19">
+        <v>43</v>
+      </c>
+      <c r="M19">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L20">
+        <v>105</v>
+      </c>
+      <c r="M20">
+        <v>105</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>75</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6625</v>
+      </c>
+      <c r="L26">
+        <v>106</v>
+      </c>
+      <c r="M26">
+        <v>106</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L27">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.62</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L30">
+        <v>54</v>
+      </c>
+      <c r="M30">
+        <v>54</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M14">
-        <v>49</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.875</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1875</v>
-      </c>
-      <c r="C16">
+      <c r="K31">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L31">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="M31">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>65</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>101</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L17">
-        <v>23</v>
-      </c>
-      <c r="M17">
-        <v>23</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L22">
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <v>40</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.76</v>
-      </c>
-      <c r="L23">
-        <v>19</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L24">
-        <v>43</v>
-      </c>
-      <c r="M24">
-        <v>43</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L25">
-        <v>28</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.7</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-      <c r="M30">
-        <v>8</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K32">
-        <v>0.6301369863013698</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1809,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1835,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6153846153846154</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1861,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6060606060606061</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1887,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5882352941176471</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1913,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.4621409921671018</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1939,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1965,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1991,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5117370892018779</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L40">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2017,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2043,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L42">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2069,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2095,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4857142857142857</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2121,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4642857142857143</v>
+        <v>0.3138075313807531</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2147,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4573643410852713</v>
+        <v>0.3125</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2173,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4545454545454545</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2199,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>867</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.45</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2225,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.44</v>
+        <v>0.006066262249183388</v>
       </c>
       <c r="L49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2251,215 +2149,33 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.35</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K51">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="L51">
-        <v>32</v>
-      </c>
-      <c r="M51">
-        <v>32</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K52">
-        <v>0.34375</v>
-      </c>
-      <c r="L52">
-        <v>11</v>
-      </c>
-      <c r="M52">
-        <v>11</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L53">
-        <v>8</v>
-      </c>
-      <c r="M53">
-        <v>8</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K54">
-        <v>0.2162162162162162</v>
-      </c>
-      <c r="L54">
-        <v>8</v>
-      </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K55">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="L55">
-        <v>8</v>
-      </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56">
-        <v>0.01707317073170732</v>
-      </c>
-      <c r="L56">
-        <v>7</v>
-      </c>
-      <c r="M56">
-        <v>7</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57">
-        <v>0.01643192488262911</v>
-      </c>
-      <c r="L57">
-        <v>7</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>419</v>
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>killed</t>
   </si>
   <si>
     <t>crude</t>
@@ -49,27 +49,27 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>warning</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,112 +88,118 @@
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
@@ -202,25 +208,22 @@
     <t>hope</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -697,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -747,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -847,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.589041095890411</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
@@ -897,37 +900,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>17</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -947,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3684210526315789</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2266666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1705426356589147</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C11">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
@@ -1097,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1693121693121693</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>157</v>
+        <v>422</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1140939597315436</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.06349206349206349</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1273,13 +1276,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1302,10 +1305,10 @@
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1325,13 +1328,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7416666666666667</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L18">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M18">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1351,13 +1354,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7413793103448276</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1377,13 +1380,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7394366197183099</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L20">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1403,13 +1406,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7391304347826086</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1429,13 +1432,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1455,7 +1458,7 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
         <v>17</v>
@@ -1473,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1481,13 +1484,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.7075471698113207</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1507,13 +1510,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1533,13 +1536,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L26">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1559,13 +1562,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6507936507936508</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1585,13 +1588,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1611,13 +1614,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5833333333333334</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1637,13 +1640,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1663,25 +1666,25 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>15</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1689,13 +1692,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1715,13 +1718,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1741,7 +1744,7 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4893617021276596</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L34">
         <v>23</v>
@@ -1759,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1767,13 +1770,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4676470588235294</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1793,13 +1796,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4642857142857143</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1819,13 +1822,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4621409921671018</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1845,13 +1848,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.45</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1871,13 +1874,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4285714285714285</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1923,13 +1926,13 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.4203389830508474</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1941,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1949,7 +1952,7 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.3698630136986301</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L42">
         <v>27</v>
@@ -1967,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1975,13 +1978,13 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3692307692307693</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1993,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2001,13 +2004,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.358974358974359</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2019,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2027,13 +2030,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.3138075313807531</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L45">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2053,13 +2056,13 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.3125</v>
+        <v>0.296875</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2079,13 +2082,13 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.0302013422818792</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>867</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2105,13 +2108,13 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.01664816870144284</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2131,7 +2134,7 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.006066262249183388</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L49">
         <v>13</v>
@@ -2149,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>2130</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2157,25 +2160,51 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.005797101449275362</v>
+        <v>0.007083065035415326</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3087</v>
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>0.006539000467071462</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2127</v>
       </c>
     </row>
   </sheetData>
